--- a/TEST 4-JAN-2020/Test Report.xlsx
+++ b/TEST 4-JAN-2020/Test Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Test Case</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>main title is blue; sub title is  red</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>OPD service link</t>
+  </si>
+  <si>
+    <t>Test if OPD service link works</t>
+  </si>
+  <si>
+    <t>It will link to a page About OPD</t>
   </si>
 </sst>
 </file>
@@ -440,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,6 +555,20 @@
       </c>
       <c r="D6" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
